--- a/BOM of SpaceKat MiniE Accessories 0630.xlsx
+++ b/BOM of SpaceKat MiniE Accessories 0630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeng_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAAE60-0158-4DB6-810C-BAAA9D20C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0C862-DD62-47FC-9D6E-EAC57D6850F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{598EE2B2-9B36-480E-A131-1384C0ADE45F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>主控</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +193,6 @@
   </si>
   <si>
     <t>3块钱100个，包邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=806670423774&amp;skuId=5653682730165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +358,16 @@
   <si>
     <t>电阻 100Ω，0805贴片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自攻螺丝 M2*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=806670423774&amp;skuId=5653682730205</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=16&amp;id=806670423774&amp;skuId=5653682730184</t>
   </si>
 </sst>
 </file>
@@ -911,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185C5A3-565B-4043-A9AC-7A4F6F64EB60}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -956,13 +962,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4">
         <v>30</v>
@@ -971,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -1001,7 +1007,7 @@
     <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
         <v>0.02</v>
@@ -1010,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="12"/>
@@ -1018,7 +1024,7 @@
     <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>0.02</v>
@@ -1033,7 +1039,7 @@
     <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <v>0.02</v>
@@ -1048,7 +1054,7 @@
     <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4">
         <v>0.3</v>
@@ -1057,17 +1063,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4">
         <v>0.3</v>
@@ -1079,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -1114,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
@@ -1124,7 +1130,7 @@
     <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <v>0.3</v>
@@ -1136,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -1231,7 +1237,7 @@
     <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
         <v>0.3</v>
@@ -1243,14 +1249,14 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4">
         <v>0.6</v>
@@ -1259,17 +1265,17 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4">
         <v>2.8</v>
@@ -1278,17 +1284,17 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4">
         <v>0.3</v>
@@ -1300,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -1348,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -1364,10 +1370,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -1412,7 +1418,7 @@
     <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4">
         <v>0.03</v>
@@ -1424,61 +1430,69 @@
         <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D32" s="4">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="D33" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1487,56 +1501,56 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4">
         <v>0.3</v>
       </c>
       <c r="D37" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1545,28 +1559,20 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="A40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>23</v>
@@ -1574,16 +1580,35 @@
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="13"/>
+      <c r="E41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G2:G41"/>
-    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G2:G42"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1596,13 +1621,12 @@
     <hyperlink ref="F16" r:id="rId7" xr:uid="{3246782D-B9E2-40F2-90E4-1D4F0BE21EF7}"/>
     <hyperlink ref="F29" r:id="rId8" xr:uid="{CFD4206B-35F3-41E8-B480-0079DCE3931A}"/>
     <hyperlink ref="F30" r:id="rId9" xr:uid="{F02912DF-B62A-42C0-9A92-FA877B6BFEB4}"/>
-    <hyperlink ref="F31" r:id="rId10" xr:uid="{7D6713AA-5DB2-4CE8-A650-0F17A0E7DB2B}"/>
-    <hyperlink ref="F32" r:id="rId11" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
-    <hyperlink ref="F33" r:id="rId13" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
-    <hyperlink ref="F20" r:id="rId14" xr:uid="{F697BC4A-384A-4958-9D8D-65A0EE8778BA}"/>
-    <hyperlink ref="F40" r:id="rId15" xr:uid="{656EF9B4-26DF-4DB5-8BA4-E836390E12CF}"/>
-    <hyperlink ref="F3" r:id="rId16" xr:uid="{86A06E02-4BCC-4317-A605-DE1AB1D195D7}"/>
+    <hyperlink ref="F33" r:id="rId10" xr:uid="{730B5C75-39B1-4095-910A-AE97327B4F1F}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{5BBD81D2-4211-4D31-A9F5-6705C091BBA3}"/>
+    <hyperlink ref="F34" r:id="rId12" xr:uid="{9CCDAFAA-0182-4358-8B51-BE4B3E14D784}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{F697BC4A-384A-4958-9D8D-65A0EE8778BA}"/>
+    <hyperlink ref="F41" r:id="rId14" xr:uid="{656EF9B4-26DF-4DB5-8BA4-E836390E12CF}"/>
+    <hyperlink ref="F3" r:id="rId15" xr:uid="{86A06E02-4BCC-4317-A605-DE1AB1D195D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
